--- a/feature/update-nos-version-dependency/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/update-nos-version-dependency/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T12:43:56+00:00</t>
+    <t>2025-01-27T12:44:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
